--- a/Data/Survey1/R/enquettedata.xlsx
+++ b/Data/Survey1/R/enquettedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="5320" windowWidth="25640" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>Age</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Winrate</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -441,182 +447,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="9" max="10" width="19.83203125" customWidth="1"/>
-    <col min="11" max="12" width="31.6640625" customWidth="1"/>
-    <col min="13" max="13" width="28.83203125" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
+    <col min="10" max="11" width="19.83203125" customWidth="1"/>
+    <col min="12" max="13" width="31.6640625" customWidth="1"/>
+    <col min="14" max="14" width="28.83203125" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
-        <v>2</v>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
       <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
         <v>25</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>70</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>45</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>9</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>45</v>
       </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
+      <c r="O3" t="s">
+        <v>15</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -628,16 +643,16 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -653,6 +668,433 @@
       </c>
       <c r="P4" t="s">
         <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>37</v>
+      </c>
+      <c r="O5">
+        <v>56</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>117</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>194</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>59</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>27</v>
+      </c>
+      <c r="O9">
+        <v>36</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>57</v>
+      </c>
+      <c r="O11">
+        <v>72</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>21</v>
+      </c>
+      <c r="N12">
+        <v>69</v>
+      </c>
+      <c r="O12">
+        <v>70</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
